--- a/data_final.xlsx
+++ b/data_final.xlsx
@@ -477,6 +477,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="10" max="10" width="9.5"/>
     <col customWidth="1" min="11" max="11" width="77.0"/>
     <col customWidth="1" min="12" max="12" width="75.63"/>
     <col customWidth="1" min="13" max="13" width="62.5"/>
